--- a/biology/Zoologie/Adephaga/Adephaga.xlsx
+++ b/biology/Zoologie/Adephaga/Adephaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Adephaga forment un sous-ordre d'insectes coléoptères dans lequel on trouve, parmi bien d'autres, les gyrins, les dytiques et les carabes. Leur nom vient du grec adephagos, qui signifie « glouton », allusion à la voracité de ces insectes, qui sont pour la plupart carnivores.
 Ils étaient auparavant subdivisés en trois super-familles (Caraboidea, Cicindeloidea et Dytiscoidea), les deux premières constituant les " Geadephaga " (= " Adephaga terrestria "), presque tous terrestres, et la dernière les " Hydradephaga " (= " Adephaga aquatica "), presque tous aquatiques.
@@ -512,26 +524,233 @@
           <t>Liste de super-familles et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette classification est toujours sujette à discussion : ordre phylogénétique de Beutel actualisé (cinq super-familles) :
-Gyrinoidea
-Gyrinidae Latreille, 1810
-Haliploidea
-Haliplidae Aubé, 1836
-Meruoidea
-Meruidae Spangler &amp; Steiner, 2005
-Dytiscoidea
-Noteridae C. G. Thomson, 1860
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classification est toujours sujette à discussion : ordre phylogénétique de Beutel actualisé (cinq super-familles) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adephaga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adephaga</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de super-familles et familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gyrinoidea</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gyrinidae Latreille, 1810</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adephaga</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adephaga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de super-familles et familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Haliploidea</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Haliplidae Aubé, 1836</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adephaga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adephaga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de super-familles et familles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Meruoidea</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Meruidae Spangler &amp; Steiner, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adephaga</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adephaga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de super-familles et familles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dytiscoidea</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Noteridae C. G. Thomson, 1860
 Amphizoidae LeConte, 1853
 Aspidytidae Ribera, Beutel, Balke et Vogler, 2002
 Dytiscidae Leach, 1815
-Pelobiidae Erichson, 1837 anciennement Hygrobiidae Régimbart, 1878
-Caraboidea
-Carabidae Latreille, 1802 incl. Cicindelidae Latreille, 1802 et Rhysodidae Laporte, 1840
-Trachypachidae C. G. Thomson, 1857
-Familles fossiles
-Colymbothetidae Ponomarenko, 1993
+Pelobiidae Erichson, 1837 anciennement Hygrobiidae Régimbart, 1878</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adephaga</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adephaga</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de super-familles et familles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caraboidea</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Carabidae Latreille, 1802 incl. Cicindelidae Latreille, 1802 et Rhysodidae Laporte, 1840
+Trachypachidae C. G. Thomson, 1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adephaga</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adephaga</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste de super-familles et familles</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Familles fossiles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Colymbothetidae Ponomarenko, 1993
 Coptoclavidae Ponomarenko, 1961
 Liadytidae Ponomarenko, 1977
 Parahygrobiidae Ponomarenko, 1977
